--- a/reporter/src/funTest/assets/dummy-expected-scan-report.xlsx
+++ b/reporter/src/funTest/assets/dummy-expected-scan-report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sse1be\Development\GitHub\oss-review-toolkit\ort\reporter\src\funTest\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nes1wa3\OneDrive - Robert Bosch GmbH\Documents\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5F3D68-2701-4389-8F27-EFE65A4E6A24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E3E37C-B676-4D0E-ADE3-2419D569F979}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="4680" windowWidth="28800" windowHeight="15555" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -241,25 +241,25 @@
     </r>
   </si>
   <si>
+    <t>ResolvedLicense(license=EPL-1.0, originalDeclaredLicenses=[Eclipse Public License 1.0], originalExpressions={DECLARED=[EPL-1.0]}, locations=[])</t>
+  </si>
+  <si>
+    <t>ResolvedLicense(license=Apache-2.0, originalDeclaredLicenses=[Apache License, Version 2.0], originalExpressions={DECLARED=[Apache-2.0]}, locations=[])</t>
+  </si>
+  <si>
+    <t>ResolvedLicense(license=BSD-3-Clause, originalDeclaredLicenses=[New BSD License], originalExpressions={DECLARED=[BSD-3-Clause]}, locations=[])</t>
+  </si>
+  <si>
+    <t>Unknown time [ERROR]: Dummy - Could not download 'Gradle:org.ossreviewtoolkit.gradle.example:lib:1.0.0': DownloadException: Download failed for 'Gradle:org.ossreviewtoolkit.gradle.example:lib:1.0.0'.
+Suppressed: DownloadException: No VCS URL provided for 'Gradle:org.ossreviewtoolkit.gradle.example:lib:1.0.0'. Please make sure the published POM file includes the SCM connection, see: https://docs.gradle.org/current/userguide/publishing_maven.html#sec:modifying_the_generated_pom
+Suppressed: DownloadException: No source artifact URL provided for 'Gradle:org.ossreviewtoolkit.gradle.example:lib:1.0.0'.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gradle:org.ossreviewtoolkit.gradle.example:lib:1.0.0
-  Unknown time [ERROR]: FileCounter - Could not download 'Gradle:org.ossreviewtoolkit.gradle.example:lib:1.0.0': DownloadException: Download failed for 'Gradle:org.ossreviewtoolkit.gradle.example:lib:1.0.0'.
+  Unknown time [ERROR]: Dummy - Could not download 'Gradle:org.ossreviewtoolkit.gradle.example:lib:1.0.0': DownloadException: Download failed for 'Gradle:org.ossreviewtoolkit.gradle.example:lib:1.0.0'.
 Suppressed: DownloadException: No VCS URL provided for 'Gradle:org.ossreviewtoolkit.gradle.example:lib:1.0.0'. Please make sure the published POM file includes the SCM connection, see: https://docs.gradle.org/current/userguide/publishing_maven.html#sec:modifying_the_generated_pom
 Suppressed: DownloadException: No source artifact URL provided for 'Gradle:org.ossreviewtoolkit.gradle.example:lib:1.0.0'.
 </t>
-  </si>
-  <si>
-    <t>Unknown time [ERROR]: FileCounter - Could not download 'Gradle:org.ossreviewtoolkit.gradle.example:lib:1.0.0': DownloadException: Download failed for 'Gradle:org.ossreviewtoolkit.gradle.example:lib:1.0.0'.
-Suppressed: DownloadException: No VCS URL provided for 'Gradle:org.ossreviewtoolkit.gradle.example:lib:1.0.0'. Please make sure the published POM file includes the SCM connection, see: https://docs.gradle.org/current/userguide/publishing_maven.html#sec:modifying_the_generated_pom
-Suppressed: DownloadException: No source artifact URL provided for 'Gradle:org.ossreviewtoolkit.gradle.example:lib:1.0.0'.</t>
-  </si>
-  <si>
-    <t>ResolvedLicense(license=EPL-1.0, originalDeclaredLicenses=[Eclipse Public License 1.0], originalExpressions={DECLARED=[EPL-1.0]}, locations=[])</t>
-  </si>
-  <si>
-    <t>ResolvedLicense(license=Apache-2.0, originalDeclaredLicenses=[Apache License, Version 2.0], originalExpressions={DECLARED=[Apache-2.0]}, locations=[])</t>
-  </si>
-  <si>
-    <t>ResolvedLicense(license=BSD-3-Clause, originalDeclaredLicenses=[New BSD License], originalExpressions={DECLARED=[BSD-3-Clause]}, locations=[])</t>
   </si>
 </sst>
 </file>
@@ -346,14 +346,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -672,11 +672,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,25 +692,25 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -721,49 +721,49 @@
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="B6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="B8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -802,7 +802,7 @@
         <v>8</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -903,11 +903,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="10" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -924,25 +924,25 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -953,49 +953,49 @@
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="B6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="B8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -1032,7 +1032,7 @@
         <v>8</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1042,8 +1042,8 @@
       <c r="B12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>35</v>
+      <c r="C12" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>8</v>
@@ -1062,8 +1062,8 @@
       <c r="B13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>36</v>
+      <c r="C13" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>8</v>
@@ -1082,8 +1082,8 @@
       <c r="B14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>36</v>
+      <c r="C14" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
@@ -1102,8 +1102,8 @@
       <c r="B15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>37</v>
+      <c r="C15" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>8</v>

--- a/reporter/src/funTest/assets/dummy-expected-scan-report.xlsx
+++ b/reporter/src/funTest/assets/dummy-expected-scan-report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nes1wa3\OneDrive - Robert Bosch GmbH\Documents\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sse1be\Development\GitHub\oss-review-toolkit\ort\reporter\src\funTest\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E3E37C-B676-4D0E-ADE3-2419D569F979}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C74F47B-82FB-4CA6-BBC9-0E337D1AD8D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6915" yWindow="3555" windowWidth="28800" windowHeight="15555" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -241,15 +241,6 @@
     </r>
   </si>
   <si>
-    <t>ResolvedLicense(license=EPL-1.0, originalDeclaredLicenses=[Eclipse Public License 1.0], originalExpressions={DECLARED=[EPL-1.0]}, locations=[])</t>
-  </si>
-  <si>
-    <t>ResolvedLicense(license=Apache-2.0, originalDeclaredLicenses=[Apache License, Version 2.0], originalExpressions={DECLARED=[Apache-2.0]}, locations=[])</t>
-  </si>
-  <si>
-    <t>ResolvedLicense(license=BSD-3-Clause, originalDeclaredLicenses=[New BSD License], originalExpressions={DECLARED=[BSD-3-Clause]}, locations=[])</t>
-  </si>
-  <si>
     <t>Unknown time [ERROR]: Dummy - Could not download 'Gradle:org.ossreviewtoolkit.gradle.example:lib:1.0.0': DownloadException: Download failed for 'Gradle:org.ossreviewtoolkit.gradle.example:lib:1.0.0'.
 Suppressed: DownloadException: No VCS URL provided for 'Gradle:org.ossreviewtoolkit.gradle.example:lib:1.0.0'. Please make sure the published POM file includes the SCM connection, see: https://docs.gradle.org/current/userguide/publishing_maven.html#sec:modifying_the_generated_pom
 Suppressed: DownloadException: No source artifact URL provided for 'Gradle:org.ossreviewtoolkit.gradle.example:lib:1.0.0'.</t>
@@ -260,6 +251,15 @@
 Suppressed: DownloadException: No VCS URL provided for 'Gradle:org.ossreviewtoolkit.gradle.example:lib:1.0.0'. Please make sure the published POM file includes the SCM connection, see: https://docs.gradle.org/current/userguide/publishing_maven.html#sec:modifying_the_generated_pom
 Suppressed: DownloadException: No source artifact URL provided for 'Gradle:org.ossreviewtoolkit.gradle.example:lib:1.0.0'.
 </t>
+  </si>
+  <si>
+    <t>EPL-1.0</t>
+  </si>
+  <si>
+    <t>Apache-2.0</t>
+  </si>
+  <si>
+    <t>BSD-3-Clause</t>
   </si>
 </sst>
 </file>
@@ -358,7 +358,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -374,7 +374,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -672,14 +672,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="41.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
@@ -802,7 +802,7 @@
         <v>8</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -903,14 +903,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
@@ -1032,7 +1032,7 @@
         <v>8</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1043,7 +1043,7 @@
         <v>31</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>8</v>
@@ -1063,7 +1063,7 @@
         <v>32</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>8</v>
@@ -1083,7 +1083,7 @@
         <v>32</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
@@ -1103,7 +1103,7 @@
         <v>31</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>8</v>

--- a/reporter/src/funTest/assets/dummy-expected-scan-report.xlsx
+++ b/reporter/src/funTest/assets/dummy-expected-scan-report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sse1be\Development\GitHub\oss-review-toolkit\ort\reporter\src\funTest\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Development\GitHub\oss-review-toolkit\ort\reporter\src\funTest\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C74F47B-82FB-4CA6-BBC9-0E337D1AD8D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D26FE1-AF51-436C-895D-BDB2398FE3DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6915" yWindow="3555" windowWidth="28800" windowHeight="15555" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6135" yWindow="1740" windowWidth="28800" windowHeight="18630" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="36">
   <si>
     <t>Project:</t>
   </si>
@@ -141,6 +141,15 @@
         <sz val="11"/>
         <rFont val="Calibri"/>
       </rPr>
+      <t>NONE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
       <t>Maven:org.apache.commons:commons-lang3:3.5</t>
     </r>
   </si>
@@ -241,32 +250,23 @@
     </r>
   </si>
   <si>
-    <t>Unknown time [ERROR]: Dummy - Could not download 'Gradle:org.ossreviewtoolkit.gradle.example:lib:1.0.0': DownloadException: Download failed for 'Gradle:org.ossreviewtoolkit.gradle.example:lib:1.0.0'.
-Suppressed: DownloadException: No VCS URL provided for 'Gradle:org.ossreviewtoolkit.gradle.example:lib:1.0.0'. Please make sure the published POM file includes the SCM connection, see: https://docs.gradle.org/current/userguide/publishing_maven.html#sec:modifying_the_generated_pom
-Suppressed: DownloadException: No source artifact URL provided for 'Gradle:org.ossreviewtoolkit.gradle.example:lib:1.0.0'.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gradle:org.ossreviewtoolkit.gradle.example:lib:1.0.0
-  Unknown time [ERROR]: Dummy - Could not download 'Gradle:org.ossreviewtoolkit.gradle.example:lib:1.0.0': DownloadException: Download failed for 'Gradle:org.ossreviewtoolkit.gradle.example:lib:1.0.0'.
-Suppressed: DownloadException: No VCS URL provided for 'Gradle:org.ossreviewtoolkit.gradle.example:lib:1.0.0'. Please make sure the published POM file includes the SCM connection, see: https://docs.gradle.org/current/userguide/publishing_maven.html#sec:modifying_the_generated_pom
-Suppressed: DownloadException: No source artifact URL provided for 'Gradle:org.ossreviewtoolkit.gradle.example:lib:1.0.0'.
+  Unknown time [ERROR]: scanner - Could not resolve provenance for package 'Gradle:org.ossreviewtoolkit.gradle.example:lib:1.0.0': IOException: Could not resolve provenance for 'Gradle:org.ossreviewtoolkit.gradle.example:lib:1.0.0' for source code origins [VCS, ARTIFACT].
+Resolution of VCS failed with:
+URISyntaxException: Cannot parse Git URI-ish: The uri was empty or null
 </t>
   </si>
   <si>
-    <t>EPL-1.0</t>
-  </si>
-  <si>
-    <t>Apache-2.0</t>
-  </si>
-  <si>
-    <t>BSD-3-Clause</t>
+    <t>Unknown time [ERROR]: scanner - Could not resolve provenance for package 'Gradle:org.ossreviewtoolkit.gradle.example:lib:1.0.0': IOException: Could not resolve provenance for 'Gradle:org.ossreviewtoolkit.gradle.example:lib:1.0.0' for source code origins [VCS, ARTIFACT].
+Resolution of VCS failed with:
+URISyntaxException: Cannot parse Git URI-ish: The uri was empty or null</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -329,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -343,22 +343,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -374,7 +371,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -676,96 +673,96 @@
       <pane xSplit="1" ySplit="10" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="229.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="253.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -785,7 +782,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="30" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>18</v>
       </c>
@@ -801,11 +798,11 @@
       <c r="E11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="45" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
@@ -816,7 +813,7 @@
         <v>22</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>8</v>
@@ -825,38 +822,38 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="75" customHeight="1">
       <c r="A13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="E13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="75" customHeight="1">
+      <c r="A14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -865,18 +862,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="45" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>8</v>
@@ -904,100 +901,100 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="10" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="102" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="229.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="252.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -1017,7 +1014,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>18</v>
       </c>
@@ -1031,22 +1028,22 @@
       <c r="E11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>8</v>
@@ -1055,58 +1052,58 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="30" customHeight="1">
       <c r="A13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="E13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" customHeight="1">
+      <c r="A14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>37</v>
+      <c r="C15" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>8</v>
